--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_0_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_0_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3089710.073742709</v>
+        <v>3089710.073742708</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4574.824098318455</v>
+        <v>857625.8202150539</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4574.824098318455</v>
+        <v>857625.8202150539</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80511.42876244331</v>
+        <v>5384348.300671213</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80511.42876244331</v>
+        <v>5384348.300671213</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570334924.377736</v>
+        <v>57309100.00556653</v>
       </c>
     </row>
   </sheetData>
@@ -743,28 +743,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.66347956377702</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>178.292460832137</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I3" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="4">
@@ -986,7 +986,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>342.6720972219126</v>
@@ -998,10 +998,10 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.06530672634153</v>
+        <v>243.6717817085141</v>
       </c>
       <c r="S6" t="n">
         <v>27.60999053064904</v>
       </c>
       <c r="T6" t="n">
-        <v>396.904699179778</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0.07238806207351445</v>
@@ -1046,7 +1046,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X6" t="n">
-        <v>358.4618674655861</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y6" t="n">
         <v>399.3913927661343</v>
@@ -1217,28 +1217,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>174.8653812316586</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>144.5498336436933</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>396.904699179778</v>
       </c>
       <c r="U9" t="n">
-        <v>400.0723880620735</v>
+        <v>0.07238806207334117</v>
       </c>
       <c r="V9" t="n">
         <v>414.5106671915202</v>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>202.5877816661332</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H12" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>396.904699179778</v>
       </c>
       <c r="U12" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W12" t="n">
-        <v>432.3731429098285</v>
+        <v>108.4318013397855</v>
       </c>
       <c r="X12" t="n">
         <v>419.8627394453875</v>
@@ -1551,58 +1551,58 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>87.26375172953334</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1694,10 +1694,10 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
-        <v>274.8229086261014</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
         <v>342.6720972219126</v>
@@ -1709,7 +1709,7 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H15" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>417.0653067263415</v>
+        <v>324.5785191740223</v>
       </c>
       <c r="S15" t="n">
         <v>427.609990530649</v>
       </c>
       <c r="T15" t="n">
-        <v>396.904699179778</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V15" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W15" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="16">
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>87.26375172953334</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D18" t="n">
-        <v>202.5877816661332</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H18" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>417.0653067263415</v>
+        <v>265.5827648369772</v>
       </c>
       <c r="S18" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>396.904699179778</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>87.26375172953334</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2165,25 +2165,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>262.3429320943906</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>323.6423660637066</v>
       </c>
       <c r="H21" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>427.609990530649</v>
+        <v>265.5827648369772</v>
       </c>
       <c r="T21" t="n">
         <v>396.904699179778</v>
@@ -2234,7 +2234,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="22">
@@ -2405,13 +2405,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>323.6423660637066</v>
       </c>
       <c r="H24" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>417.0653067263415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>396.904699179778</v>
@@ -2465,13 +2465,13 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W24" t="n">
-        <v>432.3731429098285</v>
+        <v>355.2838105248936</v>
       </c>
       <c r="X24" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y24" t="n">
-        <v>217.4226177859409</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="25">
@@ -2642,25 +2642,25 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C27" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>146.8946300782666</v>
       </c>
       <c r="S27" t="n">
-        <v>306.989179402968</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T27" t="n">
         <v>396.904699179778</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V27" t="n">
         <v>414.5106671915202</v>
@@ -2708,7 +2708,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>87.26375172953334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I30" t="n">
-        <v>72.92119721210322</v>
+        <v>71.22288611679522</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>343.3669956310335</v>
+        <v>345.0653067263415</v>
       </c>
       <c r="S30" t="n">
         <v>355.609990530649</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>106.0712666012184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I33" t="n">
-        <v>72.92119721210324</v>
+        <v>71.22288611679522</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>343.3669956310335</v>
+        <v>345.0653067263415</v>
       </c>
       <c r="S33" t="n">
         <v>355.609990530649</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.1391588885039</v>
+        <v>106.0712666012184</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.69179284102942</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>312.5565566463266</v>
+        <v>310.8582455510187</v>
       </c>
       <c r="C36" t="n">
         <v>289.0999124455193</v>
@@ -3407,7 +3407,7 @@
         <v>324.904699179778</v>
       </c>
       <c r="U36" t="n">
-        <v>326.3740769667657</v>
+        <v>328.0723880620735</v>
       </c>
       <c r="V36" t="n">
         <v>342.5106671915202</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>106.0712666012184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         <v>267.6362423378769</v>
       </c>
       <c r="G39" t="n">
-        <v>249.9440549683986</v>
+        <v>251.6423660637066</v>
       </c>
       <c r="H39" t="n">
         <v>239.9138419034023</v>
       </c>
       <c r="I39" t="n">
-        <v>72.92119721210322</v>
+        <v>72.92119721210324</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>345.0653067263415</v>
+        <v>343.3669956310335</v>
       </c>
       <c r="S39" t="n">
         <v>355.609990530649</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>157.8309517295333</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>106.0712666012184</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>157.8309517295333</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.0712666012184</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
         <v>342.6720972219126</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>311.9138419034023</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>222.0911374730947</v>
       </c>
       <c r="S45" t="n">
-        <v>427.609990530649</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>203.1707634917782</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U45" t="n">
         <v>400.0723880620735</v>
@@ -4124,10 +4124,10 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y45" t="n">
         <v>399.3913927661343</v>
@@ -4333,28 +4333,28 @@
         <v>142.64</v>
       </c>
       <c r="I2" t="n">
-        <v>142.64</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="J2" t="n">
-        <v>533.9491130376557</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="K2" t="n">
-        <v>1243.655479385524</v>
+        <v>2067.620287078561</v>
       </c>
       <c r="L2" t="n">
-        <v>2150.684973955147</v>
+        <v>3587.006321849188</v>
       </c>
       <c r="M2" t="n">
-        <v>3342.898442131318</v>
+        <v>4097.855150578123</v>
       </c>
       <c r="N2" t="n">
-        <v>4648.508593564373</v>
+        <v>5403.465302011178</v>
       </c>
       <c r="O2" t="n">
-        <v>5601.55113758633</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P2" t="n">
-        <v>6883.801090947656</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q2" t="n">
         <v>7131.746396026259</v>
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1305.136871551111</v>
+        <v>989.2500905386283</v>
       </c>
       <c r="C3" t="n">
-        <v>1305.136871551111</v>
+        <v>809.156695758692</v>
       </c>
       <c r="D3" t="n">
-        <v>1305.136871551111</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="E3" t="n">
-        <v>959.003440013825</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="F3" t="n">
-        <v>615.936528561424</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="G3" t="n">
-        <v>289.0250476889931</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="H3" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I3" t="n">
         <v>142.64</v>
@@ -4460,7 +4460,7 @@
         <v>1392.67573979735</v>
       </c>
       <c r="Y3" t="n">
-        <v>1392.67573979735</v>
+        <v>989.2500905386283</v>
       </c>
     </row>
     <row r="4">
@@ -4476,28 +4476,28 @@
         <v>142.64</v>
       </c>
       <c r="D4" t="n">
-        <v>255.9591441250001</v>
+        <v>142.64</v>
       </c>
       <c r="E4" t="n">
-        <v>373.7880483364131</v>
+        <v>142.64</v>
       </c>
       <c r="F4" t="n">
-        <v>373.7880483364131</v>
+        <v>142.64</v>
       </c>
       <c r="G4" t="n">
-        <v>373.7880483364131</v>
+        <v>142.64</v>
       </c>
       <c r="H4" t="n">
-        <v>373.7880483364131</v>
+        <v>142.64</v>
       </c>
       <c r="I4" t="n">
-        <v>373.7880483364131</v>
+        <v>142.64</v>
       </c>
       <c r="J4" t="n">
-        <v>648.66370915444</v>
+        <v>413.1939184076905</v>
       </c>
       <c r="K4" t="n">
-        <v>648.66370915444</v>
+        <v>413.1939184076905</v>
       </c>
       <c r="L4" t="n">
         <v>648.66370915444</v>
@@ -4570,28 +4570,28 @@
         <v>142.64</v>
       </c>
       <c r="I5" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J5" t="n">
-        <v>534.9679634442602</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K5" t="n">
-        <v>1244.674329792129</v>
+        <v>1356.895070324088</v>
       </c>
       <c r="L5" t="n">
-        <v>2151.703824361751</v>
+        <v>2876.281105094715</v>
       </c>
       <c r="M5" t="n">
-        <v>2919.102557440619</v>
+        <v>3387.12993382365</v>
       </c>
       <c r="N5" t="n">
-        <v>4224.712708873674</v>
+        <v>4000.350253598413</v>
       </c>
       <c r="O5" t="n">
-        <v>5831.559337066485</v>
+        <v>4953.392797620369</v>
       </c>
       <c r="P5" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q5" t="n">
         <v>7131.746396026259</v>
@@ -4628,25 +4628,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1874.951419158301</v>
+        <v>1984.948744630829</v>
       </c>
       <c r="C6" t="n">
-        <v>1510.204032849696</v>
+        <v>1620.201358322224</v>
       </c>
       <c r="D6" t="n">
-        <v>1158.751823862117</v>
+        <v>1620.201358322224</v>
       </c>
       <c r="E6" t="n">
-        <v>812.6183923248318</v>
+        <v>1274.067926784938</v>
       </c>
       <c r="F6" t="n">
-        <v>469.5514808724309</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="G6" t="n">
-        <v>142.64</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="H6" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I6" t="n">
         <v>142.64</v>
@@ -4676,28 +4676,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R6" t="n">
-        <v>4313.214757291529</v>
+        <v>4084.319328016607</v>
       </c>
       <c r="S6" t="n">
-        <v>4285.325877967642</v>
+        <v>4056.430448692719</v>
       </c>
       <c r="T6" t="n">
-        <v>3884.41204041231</v>
+        <v>4056.430448692719</v>
       </c>
       <c r="U6" t="n">
-        <v>3884.338921157691</v>
+        <v>4056.357329438099</v>
       </c>
       <c r="V6" t="n">
-        <v>3465.641277529893</v>
+        <v>3637.659685810301</v>
       </c>
       <c r="W6" t="n">
-        <v>3028.900729136126</v>
+        <v>3200.919137416535</v>
       </c>
       <c r="X6" t="n">
-        <v>2666.818034726443</v>
+        <v>2776.815360198972</v>
       </c>
       <c r="Y6" t="n">
-        <v>2263.392385467722</v>
+        <v>2373.38971094025</v>
       </c>
     </row>
     <row r="7">
@@ -4707,34 +4707,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="C7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="D7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="E7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="F7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="G7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="H7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="I7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="J7" t="n">
-        <v>413.1939184076905</v>
+        <v>648.66370915444</v>
       </c>
       <c r="K7" t="n">
-        <v>413.1939184076905</v>
+        <v>648.66370915444</v>
       </c>
       <c r="L7" t="n">
         <v>648.66370915444</v>
@@ -4764,19 +4764,19 @@
         <v>142.64</v>
       </c>
       <c r="U7" t="n">
-        <v>142.64</v>
+        <v>189.8061942416112</v>
       </c>
       <c r="V7" t="n">
-        <v>142.64</v>
+        <v>388.6275871275571</v>
       </c>
       <c r="W7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="X7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.64</v>
+        <v>560.5185053872345</v>
       </c>
     </row>
     <row r="8">
@@ -4807,28 +4807,28 @@
         <v>142.64</v>
       </c>
       <c r="I8" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J8" t="n">
-        <v>864.3122335447629</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K8" t="n">
-        <v>2067.620287078561</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L8" t="n">
-        <v>3587.006321849188</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M8" t="n">
-        <v>4779.21979002536</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N8" t="n">
-        <v>5392.440109800123</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O8" t="n">
-        <v>6693.147300973592</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P8" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q8" t="n">
         <v>7131.746396026259</v>
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>989.2500905386283</v>
+        <v>1004.849528269611</v>
       </c>
       <c r="C9" t="n">
-        <v>989.2500905386283</v>
+        <v>640.1021419610061</v>
       </c>
       <c r="D9" t="n">
-        <v>812.6183923248318</v>
+        <v>288.6499329734276</v>
       </c>
       <c r="E9" t="n">
-        <v>812.6183923248318</v>
+        <v>288.6499329734276</v>
       </c>
       <c r="F9" t="n">
-        <v>469.5514808724309</v>
+        <v>288.6499329734276</v>
       </c>
       <c r="G9" t="n">
-        <v>142.64</v>
+        <v>288.6499329734276</v>
       </c>
       <c r="H9" t="n">
-        <v>142.64</v>
+        <v>288.6499329734276</v>
       </c>
       <c r="I9" t="n">
         <v>142.64</v>
@@ -4922,19 +4922,19 @@
         <v>3076.331232331501</v>
       </c>
       <c r="U9" t="n">
-        <v>2672.217709036478</v>
+        <v>3076.258113076882</v>
       </c>
       <c r="V9" t="n">
-        <v>2253.520065408679</v>
+        <v>2657.560469449083</v>
       </c>
       <c r="W9" t="n">
-        <v>1816.779517014913</v>
+        <v>2220.819921055317</v>
       </c>
       <c r="X9" t="n">
-        <v>1392.67573979735</v>
+        <v>1796.716143837754</v>
       </c>
       <c r="Y9" t="n">
-        <v>989.2500905386283</v>
+        <v>1393.290494579032</v>
       </c>
     </row>
     <row r="10">
@@ -4944,40 +4944,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="C10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="D10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="E10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="G10" t="n">
-        <v>375.5262726868534</v>
+        <v>142.64</v>
       </c>
       <c r="H10" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="I10" t="n">
-        <v>560.5185053872345</v>
+        <v>142.64</v>
       </c>
       <c r="J10" t="n">
-        <v>648.66370915444</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="K10" t="n">
-        <v>648.66370915444</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="L10" t="n">
-        <v>648.66370915444</v>
+        <v>466.2549945139549</v>
       </c>
       <c r="M10" t="n">
-        <v>648.66370915444</v>
+        <v>619.6789738155944</v>
       </c>
       <c r="N10" t="n">
         <v>648.66370915444</v>
@@ -5001,19 +5001,19 @@
         <v>142.64</v>
       </c>
       <c r="U10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="V10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="W10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="X10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.3790920458698</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="11">
@@ -5044,19 +5044,19 @@
         <v>142.64</v>
       </c>
       <c r="I11" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J11" t="n">
-        <v>534.9679634442602</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K11" t="n">
-        <v>1738.276016978058</v>
+        <v>1747.013747961157</v>
       </c>
       <c r="L11" t="n">
-        <v>3257.662051748685</v>
+        <v>2654.04324253078</v>
       </c>
       <c r="M11" t="n">
-        <v>3768.510880477621</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N11" t="n">
         <v>4459.477030481714</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>784.6159676435443</v>
+        <v>1332.136123857608</v>
       </c>
       <c r="C12" t="n">
-        <v>784.6159676435443</v>
+        <v>967.3887375490024</v>
       </c>
       <c r="D12" t="n">
-        <v>784.6159676435443</v>
+        <v>615.936528561424</v>
       </c>
       <c r="E12" t="n">
-        <v>784.6159676435443</v>
+        <v>615.936528561424</v>
       </c>
       <c r="F12" t="n">
-        <v>784.6159676435443</v>
+        <v>615.936528561424</v>
       </c>
       <c r="G12" t="n">
-        <v>457.7044867711135</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="H12" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I12" t="n">
         <v>142.64</v>
@@ -5159,19 +5159,19 @@
         <v>3076.331232331501</v>
       </c>
       <c r="U12" t="n">
-        <v>2672.217709036478</v>
+        <v>3076.331232331501</v>
       </c>
       <c r="V12" t="n">
-        <v>2253.520065408679</v>
+        <v>2657.633588703703</v>
       </c>
       <c r="W12" t="n">
-        <v>1816.779517014913</v>
+        <v>2548.106516643314</v>
       </c>
       <c r="X12" t="n">
-        <v>1392.67573979735</v>
+        <v>2124.00273942575</v>
       </c>
       <c r="Y12" t="n">
-        <v>989.2500905386283</v>
+        <v>1720.577090167029</v>
       </c>
     </row>
     <row r="13">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="C13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="D13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="E13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="F13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="H13" t="n">
         <v>142.64</v>
@@ -5250,7 +5250,7 @@
         <v>230.7852037672054</v>
       </c>
       <c r="Y13" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>142.64</v>
       </c>
       <c r="J14" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K14" t="n">
-        <v>1466.083256836179</v>
+        <v>2066.601436671956</v>
       </c>
       <c r="L14" t="n">
-        <v>2985.469291606806</v>
+        <v>3585.987471442583</v>
       </c>
       <c r="M14" t="n">
-        <v>3496.318120335741</v>
+        <v>4215.040561436405</v>
       </c>
       <c r="N14" t="n">
-        <v>4109.538440110504</v>
+        <v>4828.260881211168</v>
       </c>
       <c r="O14" t="n">
-        <v>5716.385068303314</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P14" t="n">
         <v>6274.107538410778</v>
@@ -5339,22 +5339,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1408.348296782953</v>
+        <v>1531.8845077059</v>
       </c>
       <c r="C15" t="n">
-        <v>1130.74939918083</v>
+        <v>1167.137121397295</v>
       </c>
       <c r="D15" t="n">
-        <v>1130.74939918083</v>
+        <v>815.6849124097164</v>
       </c>
       <c r="E15" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F15" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G15" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H15" t="n">
         <v>142.64</v>
@@ -5387,28 +5387,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R15" t="n">
-        <v>3909.174353251125</v>
+        <v>4002.59535077872</v>
       </c>
       <c r="S15" t="n">
-        <v>3477.245069886832</v>
+        <v>3570.666067414428</v>
       </c>
       <c r="T15" t="n">
-        <v>3076.331232331501</v>
+        <v>3570.666067414428</v>
       </c>
       <c r="U15" t="n">
-        <v>3076.331232331501</v>
+        <v>3166.552544119404</v>
       </c>
       <c r="V15" t="n">
-        <v>2657.633588703703</v>
+        <v>2747.854900491606</v>
       </c>
       <c r="W15" t="n">
-        <v>2220.893040309937</v>
+        <v>2747.854900491606</v>
       </c>
       <c r="X15" t="n">
-        <v>1796.789263092373</v>
+        <v>2323.751123274043</v>
       </c>
       <c r="Y15" t="n">
-        <v>1796.789263092373</v>
+        <v>1920.325474015321</v>
       </c>
     </row>
     <row r="16">
@@ -5484,7 +5484,7 @@
         <v>230.7852037672054</v>
       </c>
       <c r="X16" t="n">
-        <v>230.7852037672054</v>
+        <v>142.64</v>
       </c>
       <c r="Y16" t="n">
         <v>142.64</v>
@@ -5521,25 +5521,25 @@
         <v>142.64</v>
       </c>
       <c r="J17" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K17" t="n">
-        <v>1737.257166571454</v>
+        <v>1572.999749486027</v>
       </c>
       <c r="L17" t="n">
-        <v>3256.643201342081</v>
+        <v>2681.603797807162</v>
       </c>
       <c r="M17" t="n">
-        <v>3767.492030071016</v>
+        <v>3192.452626536097</v>
       </c>
       <c r="N17" t="n">
-        <v>4380.712349845779</v>
+        <v>3805.67294631086</v>
       </c>
       <c r="O17" t="n">
-        <v>5333.754893867736</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P17" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q17" t="n">
         <v>7131.746396026259</v>
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.2500905386283</v>
+        <v>1185.751076168615</v>
       </c>
       <c r="C18" t="n">
-        <v>989.2500905386283</v>
+        <v>821.0036898600094</v>
       </c>
       <c r="D18" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="E18" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F18" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G18" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H18" t="n">
         <v>142.64</v>
@@ -5624,28 +5624,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R18" t="n">
-        <v>3909.174353251125</v>
+        <v>4062.18702182624</v>
       </c>
       <c r="S18" t="n">
-        <v>3477.245069886832</v>
+        <v>4062.18702182624</v>
       </c>
       <c r="T18" t="n">
-        <v>3076.331232331501</v>
+        <v>3661.273184270909</v>
       </c>
       <c r="U18" t="n">
-        <v>2672.217709036478</v>
+        <v>3257.159660975885</v>
       </c>
       <c r="V18" t="n">
-        <v>2253.520065408679</v>
+        <v>2838.462017348087</v>
       </c>
       <c r="W18" t="n">
-        <v>1816.779517014913</v>
+        <v>2401.721468954321</v>
       </c>
       <c r="X18" t="n">
-        <v>1392.67573979735</v>
+        <v>1977.617691736757</v>
       </c>
       <c r="Y18" t="n">
-        <v>989.2500905386283</v>
+        <v>1574.192042478036</v>
       </c>
     </row>
     <row r="19">
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="C19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="D19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="E19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="F19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="G19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="H19" t="n">
         <v>142.64</v>
@@ -5724,7 +5724,7 @@
         <v>230.7852037672054</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
     </row>
     <row r="20">
@@ -5755,28 +5755,28 @@
         <v>142.64</v>
       </c>
       <c r="I20" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J20" t="n">
-        <v>534.9679634442602</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K20" t="n">
-        <v>1738.276016978058</v>
+        <v>2066.601436671956</v>
       </c>
       <c r="L20" t="n">
-        <v>3257.662051748685</v>
+        <v>3585.987471442583</v>
       </c>
       <c r="M20" t="n">
-        <v>4265.296473269765</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="N20" t="n">
-        <v>4878.516793044528</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O20" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P20" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q20" t="n">
         <v>7131.746396026259</v>
@@ -5813,22 +5813,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1392.67573979735</v>
+        <v>1185.751076168615</v>
       </c>
       <c r="C21" t="n">
-        <v>1392.67573979735</v>
+        <v>821.0036898600094</v>
       </c>
       <c r="D21" t="n">
-        <v>1392.67573979735</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="E21" t="n">
-        <v>1127.682879095945</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F21" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G21" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H21" t="n">
         <v>142.64</v>
@@ -5861,28 +5861,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R21" t="n">
-        <v>3909.174353251125</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="S21" t="n">
-        <v>3477.245069886832</v>
+        <v>4062.18702182624</v>
       </c>
       <c r="T21" t="n">
-        <v>3076.331232331501</v>
+        <v>3661.273184270909</v>
       </c>
       <c r="U21" t="n">
-        <v>2672.217709036478</v>
+        <v>3257.159660975885</v>
       </c>
       <c r="V21" t="n">
-        <v>2253.520065408679</v>
+        <v>2838.462017348087</v>
       </c>
       <c r="W21" t="n">
-        <v>1816.779517014913</v>
+        <v>2401.721468954321</v>
       </c>
       <c r="X21" t="n">
-        <v>1392.67573979735</v>
+        <v>1977.617691736757</v>
       </c>
       <c r="Y21" t="n">
-        <v>1392.67573979735</v>
+        <v>1574.192042478036</v>
       </c>
     </row>
     <row r="22">
@@ -5995,25 +5995,25 @@
         <v>143.6588504066046</v>
       </c>
       <c r="J23" t="n">
-        <v>534.9679634442602</v>
+        <v>438.3105443244677</v>
       </c>
       <c r="K23" t="n">
-        <v>1738.276016978058</v>
+        <v>1641.618597858266</v>
       </c>
       <c r="L23" t="n">
-        <v>3257.662051748685</v>
+        <v>3161.004632628893</v>
       </c>
       <c r="M23" t="n">
-        <v>4265.296473269765</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N23" t="n">
-        <v>4878.516793044528</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O23" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P23" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q23" t="n">
         <v>7131.746396026259</v>
@@ -6050,22 +6050,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>784.6159676435443</v>
+        <v>1531.8845077059</v>
       </c>
       <c r="C24" t="n">
-        <v>784.6159676435443</v>
+        <v>1167.137121397295</v>
       </c>
       <c r="D24" t="n">
-        <v>784.6159676435443</v>
+        <v>815.6849124097164</v>
       </c>
       <c r="E24" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F24" t="n">
-        <v>784.6159676435443</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G24" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H24" t="n">
         <v>142.64</v>
@@ -6098,28 +6098,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R24" t="n">
-        <v>3909.174353251125</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="S24" t="n">
-        <v>3477.245069886832</v>
+        <v>4330.45244085349</v>
       </c>
       <c r="T24" t="n">
-        <v>3076.331232331501</v>
+        <v>3929.538603298159</v>
       </c>
       <c r="U24" t="n">
-        <v>2672.217709036478</v>
+        <v>3525.425080003135</v>
       </c>
       <c r="V24" t="n">
-        <v>2253.520065408679</v>
+        <v>3106.727436375337</v>
       </c>
       <c r="W24" t="n">
-        <v>1816.779517014913</v>
+        <v>2747.854900491606</v>
       </c>
       <c r="X24" t="n">
-        <v>1392.67573979735</v>
+        <v>2323.751123274043</v>
       </c>
       <c r="Y24" t="n">
-        <v>1173.056933952965</v>
+        <v>1920.325474015321</v>
       </c>
     </row>
     <row r="25">
@@ -6232,25 +6232,25 @@
         <v>142.64</v>
       </c>
       <c r="J26" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K26" t="n">
-        <v>1243.655479385524</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L26" t="n">
-        <v>2763.041514156151</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M26" t="n">
-        <v>3955.254982332322</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N26" t="n">
-        <v>4878.516793044528</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O26" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P26" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q26" t="n">
         <v>7131.746396026259</v>
@@ -6287,25 +6287,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1548.03993828587</v>
+        <v>1277.134446869823</v>
       </c>
       <c r="C27" t="n">
-        <v>1183.292551977265</v>
+        <v>1277.134446869823</v>
       </c>
       <c r="D27" t="n">
-        <v>831.8403429896864</v>
+        <v>1277.134446869823</v>
       </c>
       <c r="E27" t="n">
-        <v>485.706911452401</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="F27" t="n">
-        <v>142.64</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="G27" t="n">
-        <v>142.64</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="H27" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I27" t="n">
         <v>142.64</v>
@@ -6335,28 +6335,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R27" t="n">
-        <v>4330.45244085349</v>
+        <v>4182.074026633019</v>
       </c>
       <c r="S27" t="n">
-        <v>4020.362360648472</v>
+        <v>3750.144743268726</v>
       </c>
       <c r="T27" t="n">
-        <v>3619.44852309314</v>
+        <v>3349.230905713395</v>
       </c>
       <c r="U27" t="n">
-        <v>3619.44852309314</v>
+        <v>2945.117382418372</v>
       </c>
       <c r="V27" t="n">
-        <v>3200.750879465342</v>
+        <v>2526.419738790573</v>
       </c>
       <c r="W27" t="n">
-        <v>2764.010331071576</v>
+        <v>2089.679190396807</v>
       </c>
       <c r="X27" t="n">
-        <v>2339.906553854013</v>
+        <v>1665.575413179244</v>
       </c>
       <c r="Y27" t="n">
-        <v>1936.480904595291</v>
+        <v>1665.575413179244</v>
       </c>
     </row>
     <row r="28">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="C28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="D28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="E28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="F28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="G28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="H28" t="n">
         <v>142.64</v>
@@ -6426,16 +6426,16 @@
         <v>230.7852037672054</v>
       </c>
       <c r="V28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="W28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="X28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.64</v>
+        <v>230.7852037672054</v>
       </c>
     </row>
     <row r="29">
@@ -6469,25 +6469,25 @@
         <v>142.64</v>
       </c>
       <c r="J29" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K29" t="n">
-        <v>1553.696970322967</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L29" t="n">
-        <v>3073.083005093594</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M29" t="n">
-        <v>4265.296473269765</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N29" t="n">
-        <v>4878.516793044528</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O29" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P29" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q29" t="n">
         <v>7131.746396026259</v>
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C30" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D30" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E30" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F30" t="n">
-        <v>712.8191971507192</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G30" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527248</v>
       </c>
       <c r="H30" t="n">
-        <v>216.2977749617204</v>
+        <v>214.5823092088841</v>
       </c>
       <c r="I30" t="n">
         <v>142.64</v>
@@ -6572,28 +6572,28 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R30" t="n">
-        <v>4553.857091731234</v>
+        <v>4552.141625978397</v>
       </c>
       <c r="S30" t="n">
-        <v>4194.655081094214</v>
+        <v>4192.939615341378</v>
       </c>
       <c r="T30" t="n">
-        <v>3866.468516266156</v>
+        <v>3864.75305051332</v>
       </c>
       <c r="U30" t="n">
-        <v>3535.082265698405</v>
+        <v>3533.366799945568</v>
       </c>
       <c r="V30" t="n">
-        <v>3189.111894797879</v>
+        <v>3187.396429045043</v>
       </c>
       <c r="W30" t="n">
-        <v>2825.098619131386</v>
+        <v>2823.38315337855</v>
       </c>
       <c r="X30" t="n">
-        <v>2473.722114641096</v>
+        <v>2472.006648888259</v>
       </c>
       <c r="Y30" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="31">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="C31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="D31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="E31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="F31" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="G31" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="H31" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="I31" t="n">
         <v>142.64</v>
@@ -6651,28 +6651,28 @@
         <v>302.0652037672054</v>
       </c>
       <c r="R31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="S31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="T31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="U31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="V31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="W31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="X31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="Y31" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
     </row>
     <row r="32">
@@ -6706,25 +6706,25 @@
         <v>142.64</v>
       </c>
       <c r="J32" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K32" t="n">
-        <v>1737.257166571454</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L32" t="n">
-        <v>3256.643201342081</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M32" t="n">
-        <v>4265.296473269765</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N32" t="n">
-        <v>4878.516793044528</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O32" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P32" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q32" t="n">
         <v>7131.746396026259</v>
@@ -6761,25 +6761,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1827.310044527499</v>
+        <v>1825.594578774662</v>
       </c>
       <c r="C33" t="n">
-        <v>1535.289930946166</v>
+        <v>1533.57446519333</v>
       </c>
       <c r="D33" t="n">
-        <v>1256.56499468586</v>
+        <v>1254.849528933024</v>
       </c>
       <c r="E33" t="n">
-        <v>983.1588358758474</v>
+        <v>981.4433701230112</v>
       </c>
       <c r="F33" t="n">
-        <v>712.8191971507193</v>
+        <v>711.1037313978829</v>
       </c>
       <c r="G33" t="n">
-        <v>458.6349890055611</v>
+        <v>456.9195232527248</v>
       </c>
       <c r="H33" t="n">
-        <v>216.2977749617204</v>
+        <v>214.5823092088841</v>
       </c>
       <c r="I33" t="n">
         <v>142.64</v>
@@ -6809,28 +6809,28 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R33" t="n">
-        <v>4553.857091731234</v>
+        <v>4552.141625978397</v>
       </c>
       <c r="S33" t="n">
-        <v>4194.655081094214</v>
+        <v>4192.939615341378</v>
       </c>
       <c r="T33" t="n">
-        <v>3866.468516266156</v>
+        <v>3864.75305051332</v>
       </c>
       <c r="U33" t="n">
-        <v>3535.082265698405</v>
+        <v>3533.366799945568</v>
       </c>
       <c r="V33" t="n">
-        <v>3189.111894797879</v>
+        <v>3187.396429045043</v>
       </c>
       <c r="W33" t="n">
-        <v>2825.098619131386</v>
+        <v>2823.38315337855</v>
       </c>
       <c r="X33" t="n">
-        <v>2473.722114641096</v>
+        <v>2472.006648888259</v>
       </c>
       <c r="Y33" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="34">
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="C34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="D34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="E34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="F34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="G34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="H34" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="I34" t="n">
         <v>142.64</v>
@@ -6873,43 +6873,43 @@
         <v>302.0652037672054</v>
       </c>
       <c r="M34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="N34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="O34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="P34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="Q34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="R34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="S34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="T34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="U34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="V34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="W34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="X34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="Y34" t="n">
-        <v>285.2048069580848</v>
+        <v>302.0652037672054</v>
       </c>
     </row>
     <row r="35">
@@ -6943,25 +6943,25 @@
         <v>142.64</v>
       </c>
       <c r="J35" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K35" t="n">
-        <v>1243.655479385524</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L35" t="n">
-        <v>2150.684973955147</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M35" t="n">
-        <v>2661.533802684082</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N35" t="n">
-        <v>3967.143954117137</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O35" t="n">
-        <v>5573.990582309947</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P35" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q35" t="n">
         <v>7131.746396026259</v>
@@ -7055,19 +7055,19 @@
         <v>3864.75305051332</v>
       </c>
       <c r="U36" t="n">
-        <v>3535.082265698405</v>
+        <v>3533.366799945568</v>
       </c>
       <c r="V36" t="n">
-        <v>3189.111894797879</v>
+        <v>3187.396429045043</v>
       </c>
       <c r="W36" t="n">
-        <v>2825.098619131386</v>
+        <v>2823.38315337855</v>
       </c>
       <c r="X36" t="n">
-        <v>2473.722114641096</v>
+        <v>2472.006648888259</v>
       </c>
       <c r="Y36" t="n">
-        <v>2143.023738109647</v>
+        <v>2141.30827235681</v>
       </c>
     </row>
     <row r="37">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="C37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="D37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="E37" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="F37" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="G37" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="H37" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="I37" t="n">
         <v>142.64</v>
@@ -7125,28 +7125,28 @@
         <v>302.0652037672054</v>
       </c>
       <c r="R37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="S37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="T37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="U37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="V37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="W37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="X37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="Y37" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
     </row>
     <row r="38">
@@ -7177,28 +7177,28 @@
         <v>142.64</v>
       </c>
       <c r="I38" t="n">
-        <v>142.64</v>
+        <v>143.6588504066046</v>
       </c>
       <c r="J38" t="n">
-        <v>863.2933831381582</v>
+        <v>864.3122335447629</v>
       </c>
       <c r="K38" t="n">
-        <v>2066.601436671956</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L38" t="n">
-        <v>3585.987471442583</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M38" t="n">
-        <v>4096.836300171519</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N38" t="n">
-        <v>4878.516793044528</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O38" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P38" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q38" t="n">
         <v>7131.746396026259</v>
@@ -7235,19 +7235,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1825.594578774662</v>
+        <v>1827.310044527499</v>
       </c>
       <c r="C39" t="n">
-        <v>1533.57446519333</v>
+        <v>1535.289930946166</v>
       </c>
       <c r="D39" t="n">
-        <v>1254.849528933024</v>
+        <v>1256.56499468586</v>
       </c>
       <c r="E39" t="n">
-        <v>981.4433701230112</v>
+        <v>983.1588358758474</v>
       </c>
       <c r="F39" t="n">
-        <v>711.1037313978829</v>
+        <v>712.8191971507193</v>
       </c>
       <c r="G39" t="n">
         <v>458.6349890055611</v>
@@ -7283,28 +7283,28 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R39" t="n">
-        <v>4552.141625978397</v>
+        <v>4553.857091731234</v>
       </c>
       <c r="S39" t="n">
-        <v>4192.939615341378</v>
+        <v>4194.655081094214</v>
       </c>
       <c r="T39" t="n">
-        <v>3864.75305051332</v>
+        <v>3866.468516266156</v>
       </c>
       <c r="U39" t="n">
-        <v>3533.366799945568</v>
+        <v>3535.082265698405</v>
       </c>
       <c r="V39" t="n">
-        <v>3187.396429045043</v>
+        <v>3189.111894797879</v>
       </c>
       <c r="W39" t="n">
-        <v>2823.38315337855</v>
+        <v>2825.098619131386</v>
       </c>
       <c r="X39" t="n">
-        <v>2472.006648888259</v>
+        <v>2473.722114641096</v>
       </c>
       <c r="Y39" t="n">
-        <v>2141.30827235681</v>
+        <v>2143.023738109647</v>
       </c>
     </row>
     <row r="40">
@@ -7314,25 +7314,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="C40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="D40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="E40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="F40" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="G40" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="H40" t="n">
-        <v>142.64</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="I40" t="n">
         <v>142.64</v>
@@ -7377,13 +7377,13 @@
         <v>302.0652037672054</v>
       </c>
       <c r="W40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="X40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
       <c r="Y40" t="n">
-        <v>302.0652037672054</v>
+        <v>194.9225102306212</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>864.3122335447629</v>
       </c>
       <c r="K41" t="n">
-        <v>2067.620287078561</v>
+        <v>1816.021847207388</v>
       </c>
       <c r="L41" t="n">
-        <v>2679.976827279566</v>
+        <v>3335.407881978016</v>
       </c>
       <c r="M41" t="n">
-        <v>3872.190295455737</v>
+        <v>3846.256710706951</v>
       </c>
       <c r="N41" t="n">
-        <v>4667.260910217968</v>
+        <v>4459.477030481714</v>
       </c>
       <c r="O41" t="n">
-        <v>6274.107538410778</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P41" t="n">
         <v>6274.107538410778</v>
@@ -7554,22 +7554,22 @@
         <v>302.0652037672054</v>
       </c>
       <c r="C43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="D43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="E43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="F43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="G43" t="n">
-        <v>302.0652037672054</v>
+        <v>142.64</v>
       </c>
       <c r="H43" t="n">
-        <v>194.9225102306212</v>
+        <v>142.64</v>
       </c>
       <c r="I43" t="n">
         <v>142.64</v>
@@ -7651,28 +7651,28 @@
         <v>142.64</v>
       </c>
       <c r="I44" t="n">
-        <v>143.6588504066046</v>
+        <v>142.64</v>
       </c>
       <c r="J44" t="n">
-        <v>143.6588504066046</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K44" t="n">
-        <v>853.365216754473</v>
+        <v>1572.999749486027</v>
       </c>
       <c r="L44" t="n">
-        <v>1760.394711324095</v>
+        <v>2681.603797807162</v>
       </c>
       <c r="M44" t="n">
-        <v>2952.608179500266</v>
+        <v>3192.452626536097</v>
       </c>
       <c r="N44" t="n">
-        <v>4224.712708873674</v>
+        <v>3805.67294631086</v>
       </c>
       <c r="O44" t="n">
-        <v>5831.559337066485</v>
+        <v>5412.519574503671</v>
       </c>
       <c r="P44" t="n">
-        <v>6693.147300973592</v>
+        <v>6274.107538410778</v>
       </c>
       <c r="Q44" t="n">
         <v>7131.746396026259</v>
@@ -7709,19 +7709,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1641.881833178428</v>
+        <v>1666.422561293576</v>
       </c>
       <c r="C45" t="n">
-        <v>1277.134446869823</v>
+        <v>1301.67517498497</v>
       </c>
       <c r="D45" t="n">
-        <v>1277.134446869823</v>
+        <v>950.2229659973921</v>
       </c>
       <c r="E45" t="n">
-        <v>931.0010153325375</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="F45" t="n">
-        <v>931.0010153325375</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="G45" t="n">
         <v>604.0895344601065</v>
@@ -7757,28 +7757,28 @@
         <v>4330.45244085349</v>
       </c>
       <c r="R45" t="n">
-        <v>4330.45244085349</v>
+        <v>4106.117958557435</v>
       </c>
       <c r="S45" t="n">
-        <v>3898.523157489198</v>
+        <v>4106.117958557435</v>
       </c>
       <c r="T45" t="n">
-        <v>3693.300164063159</v>
+        <v>3705.204121002103</v>
       </c>
       <c r="U45" t="n">
-        <v>3289.186640768135</v>
+        <v>3301.09059770708</v>
       </c>
       <c r="V45" t="n">
-        <v>2870.488997140337</v>
+        <v>2882.392954079281</v>
       </c>
       <c r="W45" t="n">
-        <v>2433.748448746571</v>
+        <v>2882.392954079281</v>
       </c>
       <c r="X45" t="n">
-        <v>2433.748448746571</v>
+        <v>2458.289176861718</v>
       </c>
       <c r="Y45" t="n">
-        <v>2030.322799487849</v>
+        <v>2054.863527602997</v>
       </c>
     </row>
     <row r="46">
@@ -7999,13 +7999,13 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8224,7 +8224,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>916.1914086561842</v>
@@ -8476,7 +8476,7 @@
         <v>1032.917105959907</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
@@ -8947,10 +8947,10 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O14" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
@@ -9418,7 +9418,7 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>1032.917105959907</v>
@@ -9643,7 +9643,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>716.8751175230994</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>119.6178738989271</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
         <v>430.3047365861567</v>
@@ -11071,7 +11071,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
         <v>1060.271045550332</v>
@@ -11083,7 +11083,7 @@
         <v>1032.917105959907</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2870600406814136</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
         <v>615.8520732695737</v>
@@ -11302,7 +11302,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
@@ -23342,13 +23342,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.9687749801934</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>342.6720972219126</v>
@@ -23360,10 +23360,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I12" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>400.0723880620735</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>323.941341570043</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>243.2856761202186</v>
       </c>
       <c r="H13" t="n">
-        <v>125.8754071589705</v>
+        <v>213.1391588885039</v>
       </c>
       <c r="I13" t="n">
         <v>123.759685128315</v>
@@ -23490,7 +23490,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y13" t="n">
-        <v>287.4653528494624</v>
+        <v>200.201601119929</v>
       </c>
     </row>
     <row r="14">
@@ -23582,10 +23582,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>86.27700381941787</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23597,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I15" t="n">
         <v>144.9211972121032</v>
@@ -23627,28 +23627,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>92.48678755231924</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U15" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23724,10 +23724,10 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
-        <v>247.4436454301076</v>
+        <v>160.1798937005742</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.201601119929</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="17">
@@ -23816,13 +23816,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>145.3499052315694</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>342.6720972219126</v>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I18" t="n">
         <v>144.9211972121032</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>151.4825418893644</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>243.2856761202186</v>
       </c>
       <c r="H19" t="n">
-        <v>213.1391588885039</v>
+        <v>125.8754071589705</v>
       </c>
       <c r="I19" t="n">
         <v>123.759685128315</v>
@@ -23964,7 +23964,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.201601119929</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="20">
@@ -24053,25 +24053,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>80.329165127522</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I21" t="n">
         <v>144.9211972121032</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>162.0272256936719</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24122,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>339.6362423378769</v>
@@ -24308,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I24" t="n">
         <v>144.9211972121032</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>417.0653067263415</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24353,13 +24353,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>77.08933238493489</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>181.9687749801935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24530,25 +24530,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G27" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>417.0653067263415</v>
+        <v>270.170676648075</v>
       </c>
       <c r="S27" t="n">
-        <v>120.620811127681</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>400.0723880620735</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="28">
@@ -24624,7 +24624,7 @@
         <v>243.2856761202186</v>
       </c>
       <c r="H28" t="n">
-        <v>213.1391588885039</v>
+        <v>125.8754071589705</v>
       </c>
       <c r="I28" t="n">
         <v>123.759685128315</v>
@@ -24666,7 +24666,7 @@
         <v>150.8624896351137</v>
       </c>
       <c r="V28" t="n">
-        <v>111.9065584866828</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.698311095308</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.698311095308043</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>208.9809048369565</v>
       </c>
       <c r="F31" t="n">
-        <v>44.55190423820861</v>
+        <v>202.3828559677419</v>
       </c>
       <c r="G31" t="n">
         <v>171.2856761202186</v>
@@ -24864,7 +24864,7 @@
         <v>141.1391588885039</v>
       </c>
       <c r="I31" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>506.614266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>575.5472099483642</v>
+        <v>469.4759433471459</v>
       </c>
       <c r="S31" t="n">
         <v>259.7329059323636</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.698311095308</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.698311095308043</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25098,10 +25098,10 @@
         <v>171.2856761202186</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>35.0678922872855</v>
       </c>
       <c r="I34" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25113,7 +25113,7 @@
         <v>90.15172651843488</v>
       </c>
       <c r="M34" t="n">
-        <v>156.3344906926681</v>
+        <v>173.0262835336975</v>
       </c>
       <c r="N34" t="n">
         <v>230.1330260913569</v>
@@ -25137,7 +25137,7 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U34" t="n">
-        <v>78.86248963511368</v>
+        <v>78.86248963511369</v>
       </c>
       <c r="V34" t="n">
         <v>127.1703102162162</v>
@@ -25238,7 +25238,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1.698311095307872</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.698311095307758</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>213.5362180555555</v>
       </c>
       <c r="E37" t="n">
-        <v>51.14995310742322</v>
+        <v>208.9809048369565</v>
       </c>
       <c r="F37" t="n">
         <v>202.3828559677419</v>
@@ -25338,7 +25338,7 @@
         <v>141.1391588885039</v>
       </c>
       <c r="I37" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>506.614266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>575.5472099483642</v>
+        <v>469.4759433471459</v>
       </c>
       <c r="S37" t="n">
         <v>259.7329059323636</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.698311095307957</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.698311095308043</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>208.9809048369565</v>
       </c>
       <c r="F40" t="n">
-        <v>44.55190423820861</v>
+        <v>202.3828559677419</v>
       </c>
       <c r="G40" t="n">
         <v>171.2856761202186</v>
@@ -25575,7 +25575,7 @@
         <v>141.1391588885039</v>
       </c>
       <c r="I40" t="n">
-        <v>51.75968512831497</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U40" t="n">
-        <v>78.86248963511369</v>
+        <v>78.86248963511368</v>
       </c>
       <c r="V40" t="n">
         <v>127.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>154.3728098387097</v>
+        <v>48.30154323749133</v>
       </c>
       <c r="X40" t="n">
         <v>175.4436454301076</v>
@@ -25794,7 +25794,7 @@
         <v>215.1138003370787</v>
       </c>
       <c r="C43" t="n">
-        <v>200.7252466480447</v>
+        <v>42.89429491851135</v>
       </c>
       <c r="D43" t="n">
         <v>213.5362180555555</v>
@@ -25809,10 +25809,10 @@
         <v>171.2856761202186</v>
       </c>
       <c r="H43" t="n">
-        <v>35.0678922872855</v>
+        <v>141.1391588885039</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>51.75968512831497</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25997,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>417.0653067263415</v>
+        <v>194.9741692532468</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>427.609990530649</v>
       </c>
       <c r="T45" t="n">
-        <v>193.7339356879998</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,10 +26012,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15227.92240399552</v>
+        <v>1290861.46634091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30455.84480799104</v>
+        <v>2581722.932681818</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45683.76721198653</v>
+        <v>3872584.39902273</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64077.63304020518</v>
+        <v>4930699.682917373</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82471.49886842382</v>
+        <v>5988814.966812018</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100865.3646966425</v>
+        <v>7046930.250706656</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119259.2305248611</v>
+        <v>8105045.53460129</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137653.0963530797</v>
+        <v>9163160.818495924</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>156046.9621812983</v>
+        <v>10221276.10239056</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173294.835041517</v>
+        <v>11396465.66350119</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>190542.7079017356</v>
+        <v>12571655.22461182</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>207790.5807619542</v>
+        <v>13746844.78572245</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>225038.453622173</v>
+        <v>14922034.3468331</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>242286.3264823919</v>
+        <v>16097223.90794375</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260680.1923106108</v>
+        <v>17155339.1918384</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>913048.3542411313</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411317</v>
+        <v>913048.3542411312</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411312</v>
       </c>
       <c r="E2" t="n">
+        <v>748423.005681577</v>
+      </c>
+      <c r="F2" t="n">
         <v>748423.0056815771</v>
-      </c>
-      <c r="F2" t="n">
-        <v>748423.005681577</v>
       </c>
       <c r="G2" t="n">
         <v>748423.005681577</v>
       </c>
       <c r="H2" t="n">
-        <v>748423.0056815771</v>
+        <v>748423.005681577</v>
       </c>
       <c r="I2" t="n">
-        <v>748423.0056815773</v>
+        <v>748423.0056815769</v>
       </c>
       <c r="J2" t="n">
+        <v>748423.0056815769</v>
+      </c>
+      <c r="K2" t="n">
+        <v>831231.6407855777</v>
+      </c>
+      <c r="L2" t="n">
+        <v>831231.6407855777</v>
+      </c>
+      <c r="M2" t="n">
+        <v>831231.6407855775</v>
+      </c>
+      <c r="N2" t="n">
+        <v>831231.6407855769</v>
+      </c>
+      <c r="O2" t="n">
+        <v>831231.6407855776</v>
+      </c>
+      <c r="P2" t="n">
         <v>748423.005681577</v>
-      </c>
-      <c r="K2" t="n">
-        <v>831231.6407855772</v>
-      </c>
-      <c r="L2" t="n">
-        <v>831231.6407855769</v>
-      </c>
-      <c r="M2" t="n">
-        <v>831231.6407855778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>831231.6407855775</v>
-      </c>
-      <c r="O2" t="n">
-        <v>831231.6407855782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>748423.0056815769</v>
       </c>
     </row>
     <row r="3">
@@ -26426,10 +26426,10 @@
         <v>131341.2704566748</v>
       </c>
       <c r="C4" t="n">
-        <v>130819.0372304334</v>
+        <v>130819.0372304335</v>
       </c>
       <c r="D4" t="n">
-        <v>130296.0955622252</v>
+        <v>130296.0955622253</v>
       </c>
       <c r="E4" t="n">
         <v>1115.16909319135</v>
@@ -26450,10 +26450,10 @@
         <v>1115.16909319135</v>
       </c>
       <c r="K4" t="n">
-        <v>64506.21516225203</v>
+        <v>64506.21516225202</v>
       </c>
       <c r="L4" t="n">
-        <v>64239.2499666958</v>
+        <v>64239.24996669581</v>
       </c>
       <c r="M4" t="n">
         <v>63971.90320553019</v>
@@ -26462,7 +26462,7 @@
         <v>63704.17204417787</v>
       </c>
       <c r="O4" t="n">
-        <v>63436.05360979277</v>
+        <v>63436.05360979278</v>
       </c>
       <c r="P4" t="n">
         <v>1115.16909319135</v>
@@ -26530,46 +26530,46 @@
         <v>-959822.9162155434</v>
       </c>
       <c r="C6" t="n">
-        <v>618940.3170106983</v>
+        <v>618940.3170106977</v>
       </c>
       <c r="D6" t="n">
-        <v>619463.2586789061</v>
+        <v>619463.258678906</v>
       </c>
       <c r="E6" t="n">
+        <v>617646.4365883857</v>
+      </c>
+      <c r="F6" t="n">
         <v>617646.4365883858</v>
-      </c>
-      <c r="F6" t="n">
-        <v>617646.4365883857</v>
       </c>
       <c r="G6" t="n">
         <v>617646.4365883857</v>
       </c>
       <c r="H6" t="n">
-        <v>617646.4365883858</v>
+        <v>617646.4365883857</v>
       </c>
       <c r="I6" t="n">
-        <v>617646.436588386</v>
+        <v>617646.4365883856</v>
       </c>
       <c r="J6" t="n">
-        <v>-9969.563411614276</v>
+        <v>-9969.563411614392</v>
       </c>
       <c r="K6" t="n">
-        <v>573411.0576233253</v>
+        <v>573411.0576233257</v>
       </c>
       <c r="L6" t="n">
-        <v>631278.0228188811</v>
+        <v>631278.0228188819</v>
       </c>
       <c r="M6" t="n">
-        <v>631545.3695800477</v>
+        <v>631545.3695800473</v>
       </c>
       <c r="N6" t="n">
-        <v>631813.1007413997</v>
+        <v>631813.100741399</v>
       </c>
       <c r="O6" t="n">
-        <v>632081.2191757854</v>
+        <v>632081.2191757848</v>
       </c>
       <c r="P6" t="n">
-        <v>617646.4365883856</v>
+        <v>617646.4365883857</v>
       </c>
     </row>
   </sheetData>
@@ -27587,28 +27587,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297.8930770825496</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>182.8074516133823</v>
       </c>
       <c r="D3" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H3" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27656,7 +27656,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27672,10 +27672,10 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D4" t="n">
-        <v>400</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E4" t="n">
-        <v>400</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F4" t="n">
         <v>274.3828559677419</v>
@@ -27690,13 +27690,13 @@
         <v>123.759685128315</v>
       </c>
       <c r="J4" t="n">
-        <v>188.616623283658</v>
+        <v>184.251226909581</v>
       </c>
       <c r="K4" t="n">
         <v>84.25028199786442</v>
       </c>
       <c r="L4" t="n">
-        <v>162.1517265184349</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
         <v>245.0262835336975</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27872,13 +27872,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>400</v>
+        <v>173.3935250178275</v>
       </c>
       <c r="S6" t="n">
         <v>400</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>396.904699179778</v>
       </c>
       <c r="U6" t="n">
         <v>400</v>
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>61.40087197980142</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27927,13 +27927,13 @@
         <v>123.759685128315</v>
       </c>
       <c r="J7" t="n">
-        <v>184.251226909581</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>84.25028199786442</v>
       </c>
       <c r="L7" t="n">
-        <v>400</v>
+        <v>162.1517265184349</v>
       </c>
       <c r="M7" t="n">
         <v>245.0262835336975</v>
@@ -27960,13 +27960,13 @@
         <v>202.5122714242905</v>
       </c>
       <c r="U7" t="n">
-        <v>150.8624896351137</v>
+        <v>198.5051100811856</v>
       </c>
       <c r="V7" t="n">
-        <v>199.1703102162162</v>
+        <v>400</v>
       </c>
       <c r="W7" t="n">
-        <v>226.3728098387097</v>
+        <v>400</v>
       </c>
       <c r="X7" t="n">
         <v>247.4436454301076</v>
@@ -28061,28 +28061,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>173.0723056660441</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H9" t="n">
         <v>311.9138419034023</v>
       </c>
       <c r="I9" t="n">
-        <v>144.9211972121032</v>
+        <v>0.3713635684098904</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28118,7 +28118,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G10" t="n">
-        <v>400</v>
+        <v>243.2856761202186</v>
       </c>
       <c r="H10" t="n">
-        <v>400</v>
+        <v>213.1391588885039</v>
       </c>
       <c r="I10" t="n">
         <v>123.759685128315</v>
@@ -28170,13 +28170,13 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L10" t="n">
-        <v>162.1517265184349</v>
+        <v>400</v>
       </c>
       <c r="M10" t="n">
-        <v>245.0262835336975</v>
+        <v>400</v>
       </c>
       <c r="N10" t="n">
-        <v>302.1330260913569</v>
+        <v>331.4105365346352</v>
       </c>
       <c r="O10" t="n">
         <v>391.9324493249165</v>
@@ -28197,7 +28197,7 @@
         <v>202.5122714242905</v>
       </c>
       <c r="U10" t="n">
-        <v>229.3868250349821</v>
+        <v>150.8624896351137</v>
       </c>
       <c r="V10" t="n">
         <v>199.1703102162162</v>
@@ -31177,28 +31177,28 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I2" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M2" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>699.3836683417086</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>79.39359936448902</v>
       </c>
       <c r="P2" t="n">
-        <v>424.911100458807</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>423.2724874371859</v>
@@ -31414,31 +31414,31 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I5" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M5" t="n">
-        <v>259.1413175251851</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>699.3836683417086</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>660.4081658291458</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>463.7644210942436</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R5" t="n">
         <v>246.2144472361809</v>
@@ -31651,31 +31651,31 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I8" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J8" t="n">
         <v>332.6709798994975</v>
       </c>
       <c r="K8" t="n">
-        <v>498.5875628140704</v>
+        <v>245.4768663852137</v>
       </c>
       <c r="L8" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M8" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>351.1764112641545</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R8" t="n">
         <v>246.2144472361809</v>
@@ -31888,22 +31888,22 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I11" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K11" t="n">
-        <v>498.5875628140704</v>
+        <v>175.7717156314452</v>
       </c>
       <c r="L11" t="n">
-        <v>618.541959798995</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>688.2471105527638</v>
       </c>
       <c r="N11" t="n">
-        <v>78.53114164578801</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -32128,16 +32128,16 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K14" t="n">
-        <v>224.6745226774287</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L14" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>119.3982437019058</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -32146,7 +32146,7 @@
         <v>660.4081658291458</v>
       </c>
       <c r="P14" t="n">
-        <v>563.6430904522613</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>423.2724874371859</v>
@@ -32365,13 +32365,13 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K17" t="n">
-        <v>498.5875628140704</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>618.541959798995</v>
+        <v>203.6106603550638</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -32380,13 +32380,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>660.4081658291458</v>
       </c>
       <c r="P17" t="n">
-        <v>502.8327709078272</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R17" t="n">
         <v>246.2144472361809</v>
@@ -32599,10 +32599,10 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I20" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K20" t="n">
         <v>498.5875628140704</v>
@@ -32611,10 +32611,10 @@
         <v>618.541959798995</v>
       </c>
       <c r="M20" t="n">
-        <v>501.803629082974</v>
+        <v>366.3037679900962</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -32623,7 +32623,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R20" t="n">
         <v>246.2144472361809</v>
@@ -32839,7 +32839,7 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K23" t="n">
         <v>498.5875628140704</v>
@@ -32848,7 +32848,7 @@
         <v>618.541959798995</v>
       </c>
       <c r="M23" t="n">
-        <v>501.803629082974</v>
+        <v>176.1648983324474</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -32860,7 +32860,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R23" t="n">
         <v>246.2144472361809</v>
@@ -33073,22 +33073,22 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I26" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>245.4768663852137</v>
       </c>
       <c r="L26" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M26" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>313.1732231691334</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -33097,7 +33097,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R26" t="n">
         <v>246.2144472361809</v>
@@ -33313,16 +33313,16 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K29" t="n">
-        <v>313.173223169134</v>
+        <v>245.4768663852137</v>
       </c>
       <c r="L29" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M29" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -33334,7 +33334,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R29" t="n">
         <v>246.2144472361809</v>
@@ -33550,16 +33550,16 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K32" t="n">
-        <v>498.5875628140704</v>
+        <v>245.4768663852137</v>
       </c>
       <c r="L32" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M32" t="n">
-        <v>502.8327709078271</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -33571,7 +33571,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R32" t="n">
         <v>246.2144472361809</v>
@@ -33787,28 +33787,28 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>245.4768663852137</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>699.3836683417086</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>660.4081658291458</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>260.170459350038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R35" t="n">
         <v>246.2144472361809</v>
@@ -34021,13 +34021,13 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I38" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J38" t="n">
         <v>332.6709798994975</v>
       </c>
       <c r="K38" t="n">
-        <v>498.5875628140704</v>
+        <v>244.4477245603607</v>
       </c>
       <c r="L38" t="n">
         <v>618.541959798995</v>
@@ -34036,7 +34036,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>170.161791008329</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -34045,7 +34045,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R38" t="n">
         <v>246.2144472361809</v>
@@ -34264,19 +34264,19 @@
         <v>332.6709798994975</v>
       </c>
       <c r="K41" t="n">
-        <v>498.5875628140704</v>
+        <v>244.4477245603607</v>
       </c>
       <c r="L41" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>183.6871666540073</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>660.4081658291458</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -34495,22 +34495,22 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I44" t="n">
-        <v>151.1103015075377</v>
+        <v>150.0811596826846</v>
       </c>
       <c r="J44" t="n">
-        <v>35.04300624509033</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>203.6106603550638</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>665.5396056551965</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>660.4081658291458</v>
@@ -34519,7 +34519,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>423.2724874371859</v>
       </c>
       <c r="R44" t="n">
         <v>246.2144472361809</v>
@@ -34825,31 +34825,31 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.029141824853099</v>
       </c>
       <c r="J2" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230996</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L2" t="n">
-        <v>916.1914086561842</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M2" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N2" t="n">
         <v>1318.798132760661</v>
       </c>
       <c r="O2" t="n">
-        <v>962.6692363858147</v>
+        <v>9.145729790396567</v>
       </c>
       <c r="P2" t="n">
-        <v>1295.201973092249</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.4498031097005</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34968,10 +34968,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.4637819444445</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>119.0190951630435</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -34986,13 +34986,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>277.6521826444716</v>
+        <v>273.2867862703944</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>237.8482734815651</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35062,31 +35062,31 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>498.5875628140705</v>
       </c>
       <c r="L5" t="n">
-        <v>916.1914086561842</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M5" t="n">
-        <v>775.1502354332002</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N5" t="n">
-        <v>1318.798132760661</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O5" t="n">
-        <v>1623.07740221496</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P5" t="n">
-        <v>870.2908726334418</v>
+        <v>1334.055293727685</v>
       </c>
       <c r="Q5" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35223,13 +35223,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>273.2867862703944</v>
+        <v>89.03555936081352</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8482734815651</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35256,13 +35256,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>47.6426204460719</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>200.8296897837838</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>173.6271901612903</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -35299,31 +35299,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>727.9327102405639</v>
       </c>
       <c r="K8" t="n">
-        <v>1215.46268033717</v>
+        <v>962.3519839083133</v>
       </c>
       <c r="L8" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M8" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N8" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.845647649969</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q8" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35451,10 +35451,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>156.7143238797814</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>186.8608411114961</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -35466,13 +35466,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>237.8482734815651</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>154.9737164663025</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>29.27751044327834</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35493,7 +35493,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>78.52433539986842</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -35536,22 +35536,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K11" t="n">
-        <v>1215.46268033717</v>
+        <v>892.6468331545448</v>
       </c>
       <c r="L11" t="n">
-        <v>1534.733368455179</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M11" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460779</v>
       </c>
       <c r="N11" t="n">
-        <v>697.9456060647408</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O11" t="n">
         <v>962.6692363858147</v>
@@ -35776,25 +35776,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K14" t="n">
-        <v>941.5496402005283</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L14" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M14" t="n">
-        <v>516.0089179080152</v>
+        <v>635.4071616099209</v>
       </c>
       <c r="N14" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.07740221496</v>
+        <v>590.1602962550534</v>
       </c>
       <c r="P14" t="n">
-        <v>563.3560304115798</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q14" t="n">
         <v>866.3018763792742</v>
@@ -36013,13 +36013,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K17" t="n">
-        <v>1215.46268033717</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L17" t="n">
-        <v>1534.733368455179</v>
+        <v>1119.802069011248</v>
       </c>
       <c r="M17" t="n">
         <v>516.0089179080152</v>
@@ -36028,13 +36028,13 @@
         <v>619.4144644189528</v>
       </c>
       <c r="O17" t="n">
-        <v>962.6692363858147</v>
+        <v>1623.07740221496</v>
       </c>
       <c r="P17" t="n">
-        <v>1373.123643541269</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q17" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36247,10 +36247,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K20" t="n">
         <v>1215.46268033717</v>
@@ -36259,10 +36259,10 @@
         <v>1534.733368455179</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.812546990989</v>
+        <v>882.3126858981113</v>
       </c>
       <c r="N20" t="n">
-        <v>619.4144644189528</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>962.6692363858147</v>
@@ -36271,7 +36271,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q20" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36487,7 +36487,7 @@
         <v>1.029141824853099</v>
       </c>
       <c r="J23" t="n">
-        <v>395.2617303410664</v>
+        <v>297.6279736544072</v>
       </c>
       <c r="K23" t="n">
         <v>1215.46268033717</v>
@@ -36496,7 +36496,7 @@
         <v>1534.733368455179</v>
       </c>
       <c r="M23" t="n">
-        <v>1017.812546990989</v>
+        <v>692.1738162404624</v>
       </c>
       <c r="N23" t="n">
         <v>619.4144644189528</v>
@@ -36508,7 +36508,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q23" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36724,19 +36724,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230996</v>
+        <v>962.3519839083133</v>
       </c>
       <c r="L26" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M26" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N26" t="n">
-        <v>932.5876875880862</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O26" t="n">
         <v>962.6692363858147</v>
@@ -36745,7 +36745,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q26" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,16 +36961,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K29" t="n">
-        <v>1030.048340692234</v>
+        <v>962.3519839083133</v>
       </c>
       <c r="L29" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M29" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N29" t="n">
         <v>619.4144644189528</v>
@@ -36982,7 +36982,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q29" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37198,16 +37198,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K32" t="n">
-        <v>1215.46268033717</v>
+        <v>962.3519839083133</v>
       </c>
       <c r="L32" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M32" t="n">
-        <v>1018.841688815842</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N32" t="n">
         <v>619.4144644189528</v>
@@ -37219,7 +37219,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37435,28 +37435,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230996</v>
+        <v>962.3519839083133</v>
       </c>
       <c r="L35" t="n">
-        <v>916.1914086561842</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M35" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.798132760661</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O35" t="n">
-        <v>1623.07740221496</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P35" t="n">
-        <v>1130.46133198348</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q35" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37669,13 +37669,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.029141824853099</v>
       </c>
       <c r="J38" t="n">
         <v>727.9327102405639</v>
       </c>
       <c r="K38" t="n">
-        <v>1215.46268033717</v>
+        <v>961.32284208346</v>
       </c>
       <c r="L38" t="n">
         <v>1534.733368455179</v>
@@ -37684,7 +37684,7 @@
         <v>516.0089179080152</v>
       </c>
       <c r="N38" t="n">
-        <v>789.5762554272817</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O38" t="n">
         <v>962.6692363858147</v>
@@ -37693,7 +37693,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q38" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37912,22 +37912,22 @@
         <v>727.9327102405639</v>
       </c>
       <c r="K41" t="n">
-        <v>1215.46268033717</v>
+        <v>961.32284208346</v>
       </c>
       <c r="L41" t="n">
-        <v>618.5419597989949</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M41" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N41" t="n">
-        <v>803.10163107296</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O41" t="n">
-        <v>1623.07740221496</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q41" t="n">
         <v>866.3018763792742</v>
@@ -38143,22 +38143,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.029141824853099</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L44" t="n">
-        <v>916.1914086561842</v>
+        <v>1119.802069011248</v>
       </c>
       <c r="M44" t="n">
-        <v>1204.256028460779</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N44" t="n">
-        <v>1284.954070074149</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O44" t="n">
         <v>1623.07740221496</v>
@@ -38167,7 +38167,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q44" t="n">
-        <v>443.0293889420883</v>
+        <v>866.3018763792742</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
